--- a/web/reportexternal.xlsx
+++ b/web/reportexternal.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>ບົດ​ສະ​ເໜີ​ໂຄງ​ການ​ຂອງ​ປີ:2019</t>
   </si>
@@ -50,33 +50,12 @@
     <t>ກົມແຜນການ ແລະການຮ່ວມມື</t>
   </si>
   <si>
-    <t>wwewe</t>
-  </si>
-  <si>
-    <t>​ນົ​ໄກ້​ກ​ກ້​ຫກດ​ກ້3333333333333333</t>
-  </si>
-  <si>
-    <t>wwewewewewwwwwwwwwwwwww</t>
-  </si>
-  <si>
-    <t>ໃໝ່</t>
-  </si>
-  <si>
-    <t>wwwwwwwwwwwwwwwwwwwwww</t>
-  </si>
-  <si>
-    <t>1111111111111111111111</t>
-  </si>
-  <si>
     <t>ກົມກວດກາ</t>
   </si>
   <si>
     <t>​ໂຄງ​ການ​ຈັດ​ຊື່​ອຸ​ປະ​ກອນ</t>
   </si>
   <si>
-    <t>​ໂຄງ​ການ​ກໍ່​ສ້າງ​ຕຶກ​ກະ​ຊວງ​ໃໝ່</t>
-  </si>
-  <si>
     <t>​ໂຄງ​ການ​ຈັດ​ຊື່​ອຸ​ປະ​ກອນ​ໄອ​ທີ​ເຂົ້າ​ກົມ</t>
   </si>
   <si>
@@ -101,12 +80,6 @@
     <t>ສູນສຳຫລວດວັດແທກ ແລະແຜນທີ່</t>
   </si>
   <si>
-    <t xml:space="preserve"> xx  x </t>
-  </si>
-  <si>
-    <t>ffffffffffffff</t>
-  </si>
-  <si>
     <t>ກົມຄຸ້ມຄອງພົນລະເມືອງ</t>
   </si>
   <si>
@@ -120,12 +93,6 @@
   </si>
   <si>
     <t>ກົມແຂ່ງຂັນ ແລະຍ້ອງຍໍ</t>
-  </si>
-  <si>
-    <t>ssssssssssssssssssssssssssssssssssss</t>
-  </si>
-  <si>
-    <t>xxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxx</t>
   </si>
   <si>
     <t>eeeeeeeeeeeeeeeee</t>
@@ -518,10 +485,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F41" sqref="F41"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -531,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="3">
-        <v>50493</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -586,393 +553,197 @@
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="5">
-        <v>8111</v>
-      </c>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6"/>
-      <c r="D6">
-        <v>2017</v>
-      </c>
-      <c r="E6">
-        <v>2020</v>
-      </c>
-      <c r="F6" s="6">
-        <v>3000</v>
+      <c r="F6" s="5">
+        <v>22000</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C7"/>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
       <c r="D7">
         <v>2020</v>
       </c>
       <c r="E7">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F7" s="6">
-        <v>4000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
       <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>2022</v>
+      </c>
+      <c r="E8">
+        <v>2023</v>
+      </c>
+      <c r="F8" s="6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D8">
-        <v>2018</v>
-      </c>
-      <c r="E8">
-        <v>2019</v>
-      </c>
-      <c r="F8" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9">
-        <v>2017</v>
-      </c>
-      <c r="E9">
-        <v>2020</v>
-      </c>
-      <c r="F9" s="6">
-        <v>1000</v>
-      </c>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10">
-        <v>2019</v>
-      </c>
-      <c r="E10">
-        <v>2026</v>
-      </c>
-      <c r="F10" s="6">
-        <v>11</v>
+      <c r="A10" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="5">
-        <v>22120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12">
-        <v>2020</v>
-      </c>
-      <c r="E12">
-        <v>2024</v>
-      </c>
-      <c r="F12" s="6">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13">
-        <v>2018</v>
-      </c>
-      <c r="E13">
-        <v>2019</v>
-      </c>
-      <c r="F13" s="6">
-        <v>120</v>
-      </c>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14">
-        <v>2022</v>
-      </c>
-      <c r="E14">
-        <v>2023</v>
-      </c>
-      <c r="F14" s="6">
-        <v>10000</v>
+      <c r="A14" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" t="s">
+      <c r="A22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
+      <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="5"/>
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>22</v>
-      </c>
+      <c r="A26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="4" t="s">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="5">
-        <v>2244</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28"/>
-      <c r="D28">
-        <v>2017</v>
-      </c>
-      <c r="E28">
-        <v>2017</v>
-      </c>
-      <c r="F28" s="6">
-        <v>2222</v>
-      </c>
+      <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29">
-        <v>2</v>
-      </c>
-      <c r="B29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29"/>
-      <c r="D29">
-        <v>2017</v>
-      </c>
-      <c r="E29">
-        <v>2017</v>
-      </c>
-      <c r="F29" s="6">
-        <v>22</v>
+      <c r="A29" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F30" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="F30" s="5">
+        <v>4000</v>
+      </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" s="5"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F34" s="5"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F36" s="5"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F38" s="5">
-        <v>8018</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39">
+      <c r="A31">
         <v>1</v>
       </c>
-      <c r="B39" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39">
-        <v>2023</v>
-      </c>
-      <c r="E39">
-        <v>2031</v>
-      </c>
-      <c r="F39" s="6">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40">
-        <v>2</v>
-      </c>
-      <c r="B40" t="s">
-        <v>36</v>
-      </c>
-      <c r="C40" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40">
-        <v>2022</v>
-      </c>
-      <c r="E40">
-        <v>2023</v>
-      </c>
-      <c r="F40" s="6">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41">
-        <v>3</v>
-      </c>
-      <c r="B41" t="s">
-        <v>37</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
         <v>9</v>
       </c>
-      <c r="D41">
+      <c r="D31">
         <v>2021</v>
       </c>
-      <c r="E41">
+      <c r="E31">
         <v>2025</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F31" s="6">
         <v>4000</v>
       </c>
     </row>
@@ -982,7 +753,13 @@
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
     <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:E14"/>
     <mergeCell ref="A15:E15"/>
     <mergeCell ref="A16:E16"/>
     <mergeCell ref="A17:E17"/>
@@ -996,15 +773,9 @@
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="A26:E26"/>
     <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A29:E29"/>
     <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="A38:E38"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/web/reportexternal.xlsx
+++ b/web/reportexternal.xlsx
@@ -135,7 +135,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0acae5"/>
+        <fgColor rgb="FFcc0000"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -147,7 +147,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFeff5f5"/>
+        <fgColor rgb="FF00b300"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
